--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>327.5482482910156</v>
+        <v>327.1248779296875</v>
       </c>
       <c r="H2" t="n">
-        <v>73.1954345703125</v>
+        <v>72.16465759277344</v>
       </c>
       <c r="I2" t="n">
-        <v>659.337646484375</v>
+        <v>609.4341430664062</v>
       </c>
       <c r="J2" t="n">
-        <v>68.92011260986328</v>
+        <v>147.9190521240234</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>342.1935424804688</v>
+        <v>392.494384765625</v>
       </c>
       <c r="H3" t="n">
-        <v>106.8219757080078</v>
+        <v>127.4872741699219</v>
       </c>
       <c r="I3" t="n">
-        <v>685.0233764648438</v>
+        <v>679.01025390625</v>
       </c>
       <c r="J3" t="n">
-        <v>77.92680358886719</v>
+        <v>146.9859771728516</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>365.0449829101562</v>
+        <v>465.0979309082031</v>
       </c>
       <c r="H4" t="n">
-        <v>131.5119018554688</v>
+        <v>142.9752807617188</v>
       </c>
       <c r="I4" t="n">
-        <v>699.583984375</v>
+        <v>712.5608520507812</v>
       </c>
       <c r="J4" t="n">
-        <v>81.29243469238281</v>
+        <v>137.7232971191406</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>397.0249633789062</v>
+        <v>532.2997436523438</v>
       </c>
       <c r="H5" t="n">
-        <v>163.572998046875</v>
+        <v>150.5216217041016</v>
       </c>
       <c r="I5" t="n">
-        <v>709.5365600585938</v>
+        <v>729.953125</v>
       </c>
       <c r="J5" t="n">
-        <v>83.3348388671875</v>
+        <v>124.2086944580078</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>438.7727661132812</v>
+        <v>592.3956298828125</v>
       </c>
       <c r="H6" t="n">
-        <v>199.2388763427734</v>
+        <v>153.6763458251953</v>
       </c>
       <c r="I6" t="n">
-        <v>706.5072631835938</v>
+        <v>734.6863403320312</v>
       </c>
       <c r="J6" t="n">
-        <v>82.50090789794922</v>
+        <v>110.8762969970703</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>285.2984619140625</v>
+        <v>269.3915100097656</v>
       </c>
       <c r="H7" t="n">
-        <v>35.99850463867188</v>
+        <v>35.51245498657227</v>
       </c>
       <c r="I7" t="n">
-        <v>656.544921875</v>
+        <v>652.8380737304688</v>
       </c>
       <c r="J7" t="n">
-        <v>80.45771026611328</v>
+        <v>98.42324066162109</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>291.1027221679688</v>
+        <v>273.2867126464844</v>
       </c>
       <c r="H8" t="n">
-        <v>43.68173980712891</v>
+        <v>24.08120536804199</v>
       </c>
       <c r="I8" t="n">
-        <v>682.0418090820312</v>
+        <v>654.9695434570312</v>
       </c>
       <c r="J8" t="n">
-        <v>72.32025909423828</v>
+        <v>125.287353515625</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>322.5997009277344</v>
+        <v>308.0497741699219</v>
       </c>
       <c r="H9" t="n">
-        <v>46.49328994750977</v>
+        <v>41.89446258544922</v>
       </c>
       <c r="I9" t="n">
-        <v>706.8433837890625</v>
+        <v>676.0922241210938</v>
       </c>
       <c r="J9" t="n">
-        <v>60.26847457885742</v>
+        <v>134.5604553222656</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>332.8172912597656</v>
+        <v>343.9668273925781</v>
       </c>
       <c r="H10" t="n">
-        <v>52.30661010742188</v>
+        <v>68.96137237548828</v>
       </c>
       <c r="I10" t="n">
-        <v>719.918701171875</v>
+        <v>713.0740356445312</v>
       </c>
       <c r="J10" t="n">
-        <v>58.52960968017578</v>
+        <v>123.8565521240234</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>344.1927185058594</v>
+        <v>403.2576599121094</v>
       </c>
       <c r="H11" t="n">
-        <v>74.92021179199219</v>
+        <v>106.3104782104492</v>
       </c>
       <c r="I11" t="n">
-        <v>732.2333984375</v>
+        <v>744.7021484375</v>
       </c>
       <c r="J11" t="n">
-        <v>62.57361221313477</v>
+        <v>108.5838470458984</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>366.1119079589844</v>
+        <v>489.5956115722656</v>
       </c>
       <c r="H12" t="n">
-        <v>106.78125</v>
+        <v>148.5542144775391</v>
       </c>
       <c r="I12" t="n">
-        <v>741.9177856445312</v>
+        <v>754.7682495117188</v>
       </c>
       <c r="J12" t="n">
-        <v>69.72772979736328</v>
+        <v>94.80597686767578</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>452.1043701171875</v>
+        <v>601.1027221679688</v>
       </c>
       <c r="H13" t="n">
-        <v>146.1840972900391</v>
+        <v>138.7927703857422</v>
       </c>
       <c r="I13" t="n">
-        <v>754.915771484375</v>
+        <v>750.6267700195312</v>
       </c>
       <c r="J13" t="n">
-        <v>87.77203369140625</v>
+        <v>94.6611328125</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>279.7977600097656</v>
+        <v>305.0802307128906</v>
       </c>
       <c r="H14" t="n">
-        <v>33.35711669921875</v>
+        <v>57.51934051513672</v>
       </c>
       <c r="I14" t="n">
-        <v>435.2833862304688</v>
+        <v>448.3985595703125</v>
       </c>
       <c r="J14" t="n">
-        <v>79.71022033691406</v>
+        <v>45.25540161132812</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>279.8251037597656</v>
+        <v>292.6245727539062</v>
       </c>
       <c r="H15" t="n">
-        <v>19.31197738647461</v>
+        <v>36.79079055786133</v>
       </c>
       <c r="I15" t="n">
-        <v>582.5513305664062</v>
+        <v>605.9652709960938</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03241729736328</v>
+        <v>61.68632888793945</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>288.3377685546875</v>
+        <v>280.9260559082031</v>
       </c>
       <c r="H16" t="n">
-        <v>29.36570930480957</v>
+        <v>30.95523834228516</v>
       </c>
       <c r="I16" t="n">
-        <v>734.750244140625</v>
+        <v>744.2749633789062</v>
       </c>
       <c r="J16" t="n">
-        <v>101.11083984375</v>
+        <v>107.161003112793</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>293.574951171875</v>
+        <v>279.9987487792969</v>
       </c>
       <c r="H17" t="n">
-        <v>28.70157432556152</v>
+        <v>28.20515441894531</v>
       </c>
       <c r="I17" t="n">
-        <v>737.78076171875</v>
+        <v>744.007080078125</v>
       </c>
       <c r="J17" t="n">
-        <v>100.7521743774414</v>
+        <v>121.1661605834961</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>307.4380493164062</v>
+        <v>308.41943359375</v>
       </c>
       <c r="H18" t="n">
-        <v>36.2278938293457</v>
+        <v>53.94431686401367</v>
       </c>
       <c r="I18" t="n">
-        <v>776.5842895507812</v>
+        <v>762.702880859375</v>
       </c>
       <c r="J18" t="n">
-        <v>90.21266937255859</v>
+        <v>124.792854309082</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>326.9474182128906</v>
+        <v>326.6443786621094</v>
       </c>
       <c r="H19" t="n">
-        <v>42.30038833618164</v>
+        <v>47.91666412353516</v>
       </c>
       <c r="I19" t="n">
-        <v>797.2730712890625</v>
+        <v>766.18994140625</v>
       </c>
       <c r="J19" t="n">
-        <v>86.82712554931641</v>
+        <v>131.6106872558594</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5257568359375</v>
+        <v>359.5350341796875</v>
       </c>
       <c r="H20" t="n">
-        <v>46.16392135620117</v>
+        <v>58.03145217895508</v>
       </c>
       <c r="I20" t="n">
-        <v>805.177734375</v>
+        <v>764.561279296875</v>
       </c>
       <c r="J20" t="n">
-        <v>92.79677581787109</v>
+        <v>128.0001525878906</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>397.1229858398438</v>
+        <v>493.0208435058594</v>
       </c>
       <c r="H21" t="n">
-        <v>85.15513610839844</v>
+        <v>141.0513763427734</v>
       </c>
       <c r="I21" t="n">
-        <v>817.032470703125</v>
+        <v>756.956298828125</v>
       </c>
       <c r="J21" t="n">
-        <v>115.6804275512695</v>
+        <v>114.1856155395508</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>768.3641967773438</v>
+        <v>746.6560668945312</v>
       </c>
       <c r="H22" t="n">
-        <v>77.59231567382812</v>
+        <v>71.42626190185547</v>
       </c>
       <c r="I22" t="n">
-        <v>822.3192749023438</v>
+        <v>743.736083984375</v>
       </c>
       <c r="J22" t="n">
-        <v>147.6538848876953</v>
+        <v>112.6593627929688</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>291.2929077148438</v>
+        <v>315.5187072753906</v>
       </c>
       <c r="H23" t="n">
-        <v>74.36611175537109</v>
+        <v>78.86264038085938</v>
       </c>
       <c r="I23" t="n">
-        <v>290.7548522949219</v>
+        <v>280.0437927246094</v>
       </c>
       <c r="J23" t="n">
-        <v>60.92534255981445</v>
+        <v>42.74599075317383</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>291.9833984375</v>
+        <v>316.1588439941406</v>
       </c>
       <c r="H24" t="n">
-        <v>50.08998107910156</v>
+        <v>75.84904479980469</v>
       </c>
       <c r="I24" t="n">
-        <v>392.5928344726562</v>
+        <v>400.5565185546875</v>
       </c>
       <c r="J24" t="n">
-        <v>79.74435424804688</v>
+        <v>50.37273788452148</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>285.1039123535156</v>
+        <v>311.5255432128906</v>
       </c>
       <c r="H25" t="n">
-        <v>20.65136337280273</v>
+        <v>61.81237411499023</v>
       </c>
       <c r="I25" t="n">
-        <v>548.197509765625</v>
+        <v>578.8787841796875</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0047760009766</v>
+        <v>66.38204193115234</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>285.255859375</v>
+        <v>300.4822387695312</v>
       </c>
       <c r="H26" t="n">
-        <v>15.80651760101318</v>
+        <v>34.30408096313477</v>
       </c>
       <c r="I26" t="n">
-        <v>672.2362670898438</v>
+        <v>709.7138671875</v>
       </c>
       <c r="J26" t="n">
-        <v>117.0593872070312</v>
+        <v>91.49980926513672</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>289.1200256347656</v>
+        <v>294.7665405273438</v>
       </c>
       <c r="H27" t="n">
-        <v>13.7983570098877</v>
+        <v>24.2795238494873</v>
       </c>
       <c r="I27" t="n">
-        <v>778.5258178710938</v>
+        <v>797.512451171875</v>
       </c>
       <c r="J27" t="n">
-        <v>130.3694152832031</v>
+        <v>112.9653244018555</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>301.0561828613281</v>
+        <v>315.8819274902344</v>
       </c>
       <c r="H28" t="n">
-        <v>24.98234939575195</v>
+        <v>48.03888702392578</v>
       </c>
       <c r="I28" t="n">
-        <v>858.954345703125</v>
+        <v>814.5571899414062</v>
       </c>
       <c r="J28" t="n">
-        <v>129.861328125</v>
+        <v>120.3842163085938</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>309.6856994628906</v>
+        <v>345.3672790527344</v>
       </c>
       <c r="H29" t="n">
-        <v>33.00942993164062</v>
+        <v>83.16368865966797</v>
       </c>
       <c r="I29" t="n">
-        <v>883.0623779296875</v>
+        <v>802.97509765625</v>
       </c>
       <c r="J29" t="n">
-        <v>130.0068359375</v>
+        <v>125.4973220825195</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>378.8891906738281</v>
+        <v>426.7758483886719</v>
       </c>
       <c r="H30" t="n">
-        <v>51.01578140258789</v>
+        <v>117.7998962402344</v>
       </c>
       <c r="I30" t="n">
-        <v>893.8624877929688</v>
+        <v>784.2722778320312</v>
       </c>
       <c r="J30" t="n">
-        <v>146.686767578125</v>
+        <v>113.0624313354492</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>745.2174682617188</v>
+        <v>697.7666015625</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6848983764648</v>
+        <v>107.2350082397461</v>
       </c>
       <c r="I31" t="n">
-        <v>894.511474609375</v>
+        <v>762.021484375</v>
       </c>
       <c r="J31" t="n">
-        <v>174.1321563720703</v>
+        <v>115.9872512817383</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>310.74951171875</v>
+        <v>341.7119140625</v>
       </c>
       <c r="H32" t="n">
-        <v>90.198486328125</v>
+        <v>102.6010208129883</v>
       </c>
       <c r="I32" t="n">
-        <v>156.7884674072266</v>
+        <v>125.7333068847656</v>
       </c>
       <c r="J32" t="n">
-        <v>53.8319091796875</v>
+        <v>47.04484176635742</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>317.2106628417969</v>
+        <v>343.669921875</v>
       </c>
       <c r="H33" t="n">
-        <v>82.33074951171875</v>
+        <v>96.47445678710938</v>
       </c>
       <c r="I33" t="n">
-        <v>257.2868957519531</v>
+        <v>246.1924438476562</v>
       </c>
       <c r="J33" t="n">
-        <v>67.63637542724609</v>
+        <v>50.98471832275391</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>312.1875305175781</v>
+        <v>336.4677734375</v>
       </c>
       <c r="H34" t="n">
-        <v>62.81587982177734</v>
+        <v>84.59102630615234</v>
       </c>
       <c r="I34" t="n">
-        <v>386.5084228515625</v>
+        <v>402.9670715332031</v>
       </c>
       <c r="J34" t="n">
-        <v>92.38250732421875</v>
+        <v>62.80889892578125</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>306.3571472167969</v>
+        <v>330.2555236816406</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81418609619141</v>
+        <v>77.96340179443359</v>
       </c>
       <c r="I35" t="n">
-        <v>505.9259338378906</v>
+        <v>542.8981323242188</v>
       </c>
       <c r="J35" t="n">
-        <v>115.3400955200195</v>
+        <v>77.11012268066406</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>293.2998657226562</v>
+        <v>316.2787170410156</v>
       </c>
       <c r="H36" t="n">
-        <v>34.81600570678711</v>
+        <v>72.20364379882812</v>
       </c>
       <c r="I36" t="n">
-        <v>696.326171875</v>
+        <v>735.9580688476562</v>
       </c>
       <c r="J36" t="n">
-        <v>140.1363372802734</v>
+        <v>99.79165649414062</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>293.0608520507812</v>
+        <v>318.8566589355469</v>
       </c>
       <c r="H37" t="n">
-        <v>34.32788848876953</v>
+        <v>74.53727722167969</v>
       </c>
       <c r="I37" t="n">
-        <v>820.6246337890625</v>
+        <v>819.7770385742188</v>
       </c>
       <c r="J37" t="n">
-        <v>158.8432464599609</v>
+        <v>109.2671508789062</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>307.3299865722656</v>
+        <v>354.9938049316406</v>
       </c>
       <c r="H38" t="n">
-        <v>34.47202682495117</v>
+        <v>88.9276123046875</v>
       </c>
       <c r="I38" t="n">
-        <v>927.36083984375</v>
+        <v>841.5890502929688</v>
       </c>
       <c r="J38" t="n">
-        <v>162.0735321044922</v>
+        <v>102.1744003295898</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>374.2053527832031</v>
+        <v>416.5336608886719</v>
       </c>
       <c r="H39" t="n">
-        <v>51.98829650878906</v>
+        <v>92.65077972412109</v>
       </c>
       <c r="I39" t="n">
-        <v>956.5372924804688</v>
+        <v>833.8939819335938</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7770538330078</v>
+        <v>103.0904235839844</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>673.0252075195312</v>
+        <v>650.4808959960938</v>
       </c>
       <c r="H40" t="n">
-        <v>104.6116561889648</v>
+        <v>97.72212982177734</v>
       </c>
       <c r="I40" t="n">
-        <v>955.0194702148438</v>
+        <v>799.540283203125</v>
       </c>
       <c r="J40" t="n">
-        <v>186.7857360839844</v>
+        <v>112.5569381713867</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>345.9075927734375</v>
+        <v>364.9439392089844</v>
       </c>
       <c r="H41" t="n">
-        <v>108.3057022094727</v>
+        <v>106.3212203979492</v>
       </c>
       <c r="I41" t="n">
-        <v>84.75830078125</v>
+        <v>48.15374374389648</v>
       </c>
       <c r="J41" t="n">
-        <v>54.48124313354492</v>
+        <v>59.23542022705078</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>360.9922790527344</v>
+        <v>377.5528564453125</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2982330322266</v>
+        <v>102.8054885864258</v>
       </c>
       <c r="I42" t="n">
-        <v>140.5588836669922</v>
+        <v>116.9279098510742</v>
       </c>
       <c r="J42" t="n">
-        <v>62.46485900878906</v>
+        <v>57.45729064941406</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>371.8880615234375</v>
+        <v>387.1342468261719</v>
       </c>
       <c r="H43" t="n">
-        <v>106.2536010742188</v>
+        <v>99.33939361572266</v>
       </c>
       <c r="I43" t="n">
-        <v>196.2320709228516</v>
+        <v>190.994384765625</v>
       </c>
       <c r="J43" t="n">
-        <v>72.00006103515625</v>
+        <v>60.18266677856445</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>352.0153503417969</v>
+        <v>373.0472717285156</v>
       </c>
       <c r="H44" t="n">
-        <v>86.61888122558594</v>
+        <v>95.02418518066406</v>
       </c>
       <c r="I44" t="n">
-        <v>360.0516662597656</v>
+        <v>393.101806640625</v>
       </c>
       <c r="J44" t="n">
-        <v>105.5537490844727</v>
+        <v>86.01322937011719</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>348.3601684570312</v>
+        <v>373.6575927734375</v>
       </c>
       <c r="H45" t="n">
-        <v>79.55094146728516</v>
+        <v>90.85923767089844</v>
       </c>
       <c r="I45" t="n">
-        <v>464.9792175292969</v>
+        <v>512.67529296875</v>
       </c>
       <c r="J45" t="n">
-        <v>128.4685821533203</v>
+        <v>101.8191146850586</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>334.7182006835938</v>
+        <v>361.5185546875</v>
       </c>
       <c r="H46" t="n">
-        <v>75.46683502197266</v>
+        <v>83.12541198730469</v>
       </c>
       <c r="I46" t="n">
-        <v>649.7255249023438</v>
+        <v>687.7767944335938</v>
       </c>
       <c r="J46" t="n">
-        <v>161.8949127197266</v>
+        <v>117.1075744628906</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>345.0540771484375</v>
+        <v>385.1601257324219</v>
       </c>
       <c r="H47" t="n">
-        <v>71.79908752441406</v>
+        <v>83.6422119140625</v>
       </c>
       <c r="I47" t="n">
-        <v>840.4559936523438</v>
+        <v>813.0276489257812</v>
       </c>
       <c r="J47" t="n">
-        <v>192.6034088134766</v>
+        <v>124.5978012084961</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>415.4694213867188</v>
+        <v>454.5936584472656</v>
       </c>
       <c r="H48" t="n">
-        <v>77.73630523681641</v>
+        <v>84.60124206542969</v>
       </c>
       <c r="I48" t="n">
-        <v>967.5342407226562</v>
+        <v>852.5517578125</v>
       </c>
       <c r="J48" t="n">
-        <v>196.9928131103516</v>
+        <v>112.2017593383789</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>589.05908203125</v>
+        <v>606.3692626953125</v>
       </c>
       <c r="H49" t="n">
-        <v>109.808219909668</v>
+        <v>72.65565490722656</v>
       </c>
       <c r="I49" t="n">
-        <v>982.5994873046875</v>
+        <v>843.3941040039062</v>
       </c>
       <c r="J49" t="n">
-        <v>200.0247650146484</v>
+        <v>117.5883407592773</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>390.5066528320312</v>
+        <v>394.7501220703125</v>
       </c>
       <c r="H50" t="n">
-        <v>120.2184448242188</v>
+        <v>113.1598510742188</v>
       </c>
       <c r="I50" t="n">
-        <v>4.15654182434082</v>
+        <v>-31.75890350341797</v>
       </c>
       <c r="J50" t="n">
-        <v>54.35921859741211</v>
+        <v>79.91798400878906</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>415.5474243164062</v>
+        <v>416.6336364746094</v>
       </c>
       <c r="H51" t="n">
-        <v>112.3668670654297</v>
+        <v>107.1323852539062</v>
       </c>
       <c r="I51" t="n">
-        <v>42.9018440246582</v>
+        <v>13.45016956329346</v>
       </c>
       <c r="J51" t="n">
-        <v>61.98036575317383</v>
+        <v>80.50861358642578</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>434.6339111328125</v>
+        <v>432.8075866699219</v>
       </c>
       <c r="H52" t="n">
-        <v>106.0980911254883</v>
+        <v>99.45661163330078</v>
       </c>
       <c r="I52" t="n">
-        <v>68.83363342285156</v>
+        <v>49.61502075195312</v>
       </c>
       <c r="J52" t="n">
-        <v>67.63102722167969</v>
+        <v>81.41786193847656</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>426.2908935546875</v>
+        <v>430.0001525878906</v>
       </c>
       <c r="H53" t="n">
-        <v>100.2398452758789</v>
+        <v>90.17230987548828</v>
       </c>
       <c r="I53" t="n">
-        <v>160.7591400146484</v>
+        <v>175.5991973876953</v>
       </c>
       <c r="J53" t="n">
-        <v>86.48513031005859</v>
+        <v>101.8669891357422</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>421.4600219726562</v>
+        <v>429.8143310546875</v>
       </c>
       <c r="H54" t="n">
-        <v>91.21050262451172</v>
+        <v>83.47820281982422</v>
       </c>
       <c r="I54" t="n">
-        <v>272.0265197753906</v>
+        <v>318.4641418457031</v>
       </c>
       <c r="J54" t="n">
-        <v>113.1515960693359</v>
+        <v>134.6266632080078</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>400.2811889648438</v>
+        <v>418.4013366699219</v>
       </c>
       <c r="H55" t="n">
-        <v>89.38890075683594</v>
+        <v>85.74464416503906</v>
       </c>
       <c r="I55" t="n">
-        <v>441.2445373535156</v>
+        <v>499.2405090332031</v>
       </c>
       <c r="J55" t="n">
-        <v>155.1583251953125</v>
+        <v>158.850341796875</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>398.4536743164062</v>
+        <v>426.656494140625</v>
       </c>
       <c r="H56" t="n">
-        <v>91.38520812988281</v>
+        <v>90.47260284423828</v>
       </c>
       <c r="I56" t="n">
-        <v>610.0780029296875</v>
+        <v>641.4224243164062</v>
       </c>
       <c r="J56" t="n">
-        <v>203.2998962402344</v>
+        <v>175.2715148925781</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>422.7255859375</v>
+        <v>468.0118408203125</v>
       </c>
       <c r="H57" t="n">
-        <v>99.96366882324219</v>
+        <v>92.51274871826172</v>
       </c>
       <c r="I57" t="n">
-        <v>845.95947265625</v>
+        <v>789.7734985351562</v>
       </c>
       <c r="J57" t="n">
-        <v>231.0998687744141</v>
+        <v>160.7335205078125</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>564.796875</v>
+        <v>598.7403564453125</v>
       </c>
       <c r="H58" t="n">
-        <v>98.77616119384766</v>
+        <v>58.15942001342773</v>
       </c>
       <c r="I58" t="n">
-        <v>965.349609375</v>
+        <v>836.5713500976562</v>
       </c>
       <c r="J58" t="n">
-        <v>256.3772277832031</v>
+        <v>157.5048065185547</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>461.8291625976562</v>
+        <v>449.0552062988281</v>
       </c>
       <c r="H59" t="n">
-        <v>107.9543533325195</v>
+        <v>94.66844177246094</v>
       </c>
       <c r="I59" t="n">
-        <v>-56.40390014648438</v>
+        <v>-97.36014556884766</v>
       </c>
       <c r="J59" t="n">
-        <v>65.04999542236328</v>
+        <v>88.82318115234375</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>465.7896423339844</v>
+        <v>454.5286560058594</v>
       </c>
       <c r="H60" t="n">
-        <v>104.7691879272461</v>
+        <v>90.29525756835938</v>
       </c>
       <c r="I60" t="n">
-        <v>-38.14216613769531</v>
+        <v>-75.31278228759766</v>
       </c>
       <c r="J60" t="n">
-        <v>71.10315704345703</v>
+        <v>91.69644927978516</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>475.2855224609375</v>
+        <v>467.3219909667969</v>
       </c>
       <c r="H61" t="n">
-        <v>98.30643463134766</v>
+        <v>84.38462829589844</v>
       </c>
       <c r="I61" t="n">
-        <v>6.647857666015625</v>
+        <v>-15.67040920257568</v>
       </c>
       <c r="J61" t="n">
-        <v>77.44979858398438</v>
+        <v>96.85692596435547</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>471.5077514648438</v>
+        <v>468.4026794433594</v>
       </c>
       <c r="H62" t="n">
-        <v>91.28477478027344</v>
+        <v>82.51683044433594</v>
       </c>
       <c r="I62" t="n">
-        <v>80.11269378662109</v>
+        <v>88.757568359375</v>
       </c>
       <c r="J62" t="n">
-        <v>92.88697052001953</v>
+        <v>123.3806228637695</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>452.0665588378906</v>
+        <v>461.1540222167969</v>
       </c>
       <c r="H63" t="n">
-        <v>85.91895294189453</v>
+        <v>80.40119171142578</v>
       </c>
       <c r="I63" t="n">
-        <v>205.8542938232422</v>
+        <v>256.1110534667969</v>
       </c>
       <c r="J63" t="n">
-        <v>124.2774658203125</v>
+        <v>168.3080444335938</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>437.6360473632812</v>
+        <v>458.98486328125</v>
       </c>
       <c r="H64" t="n">
-        <v>85.79605865478516</v>
+        <v>88.98857116699219</v>
       </c>
       <c r="I64" t="n">
-        <v>381.8644409179688</v>
+        <v>442.3790588378906</v>
       </c>
       <c r="J64" t="n">
-        <v>189.3249664306641</v>
+        <v>215.0533447265625</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>442.5061950683594</v>
+        <v>481.9540100097656</v>
       </c>
       <c r="H65" t="n">
-        <v>104.4325790405273</v>
+        <v>103.3855438232422</v>
       </c>
       <c r="I65" t="n">
-        <v>675.8070068359375</v>
+        <v>669.1088256835938</v>
       </c>
       <c r="J65" t="n">
-        <v>256.2872619628906</v>
+        <v>214.2952880859375</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>491.4192199707031</v>
+        <v>477.2466735839844</v>
       </c>
       <c r="H66" t="n">
-        <v>91.41831970214844</v>
+        <v>84.31951904296875</v>
       </c>
       <c r="I66" t="n">
-        <v>-135.3441162109375</v>
+        <v>-189.2852935791016</v>
       </c>
       <c r="J66" t="n">
-        <v>70.11378479003906</v>
+        <v>76.75922393798828</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>494.8224487304688</v>
+        <v>481.2705383300781</v>
       </c>
       <c r="H67" t="n">
-        <v>86.91957855224609</v>
+        <v>81.93093109130859</v>
       </c>
       <c r="I67" t="n">
-        <v>-123.0286102294922</v>
+        <v>-176.6923370361328</v>
       </c>
       <c r="J67" t="n">
-        <v>72.25054168701172</v>
+        <v>76.17436218261719</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>492.8906860351562</v>
+        <v>485.4921875</v>
       </c>
       <c r="H68" t="n">
-        <v>82.36833190917969</v>
+        <v>81.96683502197266</v>
       </c>
       <c r="I68" t="n">
-        <v>-53.07026290893555</v>
+        <v>-87.18978881835938</v>
       </c>
       <c r="J68" t="n">
-        <v>83.77722930908203</v>
+        <v>93.75200653076172</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>487.8834228515625</v>
+        <v>486.656494140625</v>
       </c>
       <c r="H69" t="n">
-        <v>78.78084564208984</v>
+        <v>83.76043701171875</v>
       </c>
       <c r="I69" t="n">
-        <v>10.88575172424316</v>
+        <v>2.013598680496216</v>
       </c>
       <c r="J69" t="n">
-        <v>98.83208465576172</v>
+        <v>122.4528427124023</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>459.5780639648438</v>
+        <v>482.3659362792969</v>
       </c>
       <c r="H70" t="n">
-        <v>83.72971343994141</v>
+        <v>89.08427429199219</v>
       </c>
       <c r="I70" t="n">
-        <v>188.419677734375</v>
+        <v>241.2418823242188</v>
       </c>
       <c r="J70" t="n">
-        <v>154.2074279785156</v>
+        <v>195.4213256835938</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>327.1248779296875</v>
+        <v>305.6959228515625</v>
       </c>
       <c r="H2" t="n">
-        <v>72.16465759277344</v>
+        <v>75.29942321777344</v>
       </c>
       <c r="I2" t="n">
-        <v>609.4341430664062</v>
+        <v>604.07958984375</v>
       </c>
       <c r="J2" t="n">
-        <v>147.9190521240234</v>
+        <v>75.83579254150391</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>392.494384765625</v>
+        <v>313.8806457519531</v>
       </c>
       <c r="H3" t="n">
-        <v>127.4872741699219</v>
+        <v>96.87433624267578</v>
       </c>
       <c r="I3" t="n">
-        <v>679.01025390625</v>
+        <v>664.924072265625</v>
       </c>
       <c r="J3" t="n">
-        <v>146.9859771728516</v>
+        <v>85.34867095947266</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>465.0979309082031</v>
+        <v>352.7153930664062</v>
       </c>
       <c r="H4" t="n">
-        <v>142.9752807617188</v>
+        <v>118.5466918945312</v>
       </c>
       <c r="I4" t="n">
-        <v>712.5608520507812</v>
+        <v>689.1785888671875</v>
       </c>
       <c r="J4" t="n">
-        <v>137.7232971191406</v>
+        <v>87.73040771484375</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>532.2997436523438</v>
+        <v>410.3625183105469</v>
       </c>
       <c r="H5" t="n">
-        <v>150.5216217041016</v>
+        <v>136.3771057128906</v>
       </c>
       <c r="I5" t="n">
-        <v>729.953125</v>
+        <v>699.3334350585938</v>
       </c>
       <c r="J5" t="n">
-        <v>124.2086944580078</v>
+        <v>88.65630340576172</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>592.3956298828125</v>
+        <v>487.1333923339844</v>
       </c>
       <c r="H6" t="n">
-        <v>153.6763458251953</v>
+        <v>162.7730712890625</v>
       </c>
       <c r="I6" t="n">
-        <v>734.6863403320312</v>
+        <v>689.9518432617188</v>
       </c>
       <c r="J6" t="n">
-        <v>110.8762969970703</v>
+        <v>89.72341918945312</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>269.3915100097656</v>
+        <v>255.8625030517578</v>
       </c>
       <c r="H7" t="n">
-        <v>35.51245498657227</v>
+        <v>28.82592964172363</v>
       </c>
       <c r="I7" t="n">
-        <v>652.8380737304688</v>
+        <v>619.8880004882812</v>
       </c>
       <c r="J7" t="n">
-        <v>98.42324066162109</v>
+        <v>70.45197296142578</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>273.2867126464844</v>
+        <v>285.0288391113281</v>
       </c>
       <c r="H8" t="n">
-        <v>24.08120536804199</v>
+        <v>36.50739669799805</v>
       </c>
       <c r="I8" t="n">
-        <v>654.9695434570312</v>
+        <v>605.6917724609375</v>
       </c>
       <c r="J8" t="n">
-        <v>125.287353515625</v>
+        <v>68.28845977783203</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>308.0497741699219</v>
+        <v>312.855712890625</v>
       </c>
       <c r="H9" t="n">
-        <v>41.89446258544922</v>
+        <v>60.25864410400391</v>
       </c>
       <c r="I9" t="n">
-        <v>676.0922241210938</v>
+        <v>628.744140625</v>
       </c>
       <c r="J9" t="n">
-        <v>134.5604553222656</v>
+        <v>62.65827941894531</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>343.9668273925781</v>
+        <v>307.2608337402344</v>
       </c>
       <c r="H10" t="n">
-        <v>68.96137237548828</v>
+        <v>72.86721801757812</v>
       </c>
       <c r="I10" t="n">
-        <v>713.0740356445312</v>
+        <v>655.3814086914062</v>
       </c>
       <c r="J10" t="n">
-        <v>123.8565521240234</v>
+        <v>71.17972564697266</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>403.2576599121094</v>
+        <v>322.2062683105469</v>
       </c>
       <c r="H11" t="n">
-        <v>106.3104782104492</v>
+        <v>98.76995849609375</v>
       </c>
       <c r="I11" t="n">
-        <v>744.7021484375</v>
+        <v>676.609130859375</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5838470458984</v>
+        <v>73.41251373291016</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>489.5956115722656</v>
+        <v>398.4276428222656</v>
       </c>
       <c r="H12" t="n">
-        <v>148.5542144775391</v>
+        <v>132.5039215087891</v>
       </c>
       <c r="I12" t="n">
-        <v>754.7682495117188</v>
+        <v>687.6126098632812</v>
       </c>
       <c r="J12" t="n">
-        <v>94.80597686767578</v>
+        <v>73.72008514404297</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>601.1027221679688</v>
+        <v>517.739990234375</v>
       </c>
       <c r="H13" t="n">
-        <v>138.7927703857422</v>
+        <v>151.5628204345703</v>
       </c>
       <c r="I13" t="n">
-        <v>750.6267700195312</v>
+        <v>681.9222412109375</v>
       </c>
       <c r="J13" t="n">
-        <v>94.6611328125</v>
+        <v>74.68284606933594</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>305.0802307128906</v>
+        <v>285.3250427246094</v>
       </c>
       <c r="H14" t="n">
-        <v>57.51934051513672</v>
+        <v>41.84273529052734</v>
       </c>
       <c r="I14" t="n">
-        <v>448.3985595703125</v>
+        <v>427.9342956542969</v>
       </c>
       <c r="J14" t="n">
-        <v>45.25540161132812</v>
+        <v>44.16925430297852</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>292.6245727539062</v>
+        <v>274.1686096191406</v>
       </c>
       <c r="H15" t="n">
-        <v>36.79079055786133</v>
+        <v>32.77483749389648</v>
       </c>
       <c r="I15" t="n">
-        <v>605.9652709960938</v>
+        <v>589.5112915039062</v>
       </c>
       <c r="J15" t="n">
-        <v>61.68632888793945</v>
+        <v>57.88634490966797</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>280.9260559082031</v>
+        <v>265.7633666992188</v>
       </c>
       <c r="H16" t="n">
-        <v>30.95523834228516</v>
+        <v>31.81057167053223</v>
       </c>
       <c r="I16" t="n">
-        <v>744.2749633789062</v>
+        <v>702.389404296875</v>
       </c>
       <c r="J16" t="n">
-        <v>107.161003112793</v>
+        <v>61.17454528808594</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>279.9987487792969</v>
+        <v>277.0812683105469</v>
       </c>
       <c r="H17" t="n">
-        <v>28.20515441894531</v>
+        <v>33.71295928955078</v>
       </c>
       <c r="I17" t="n">
-        <v>744.007080078125</v>
+        <v>696.8483276367188</v>
       </c>
       <c r="J17" t="n">
-        <v>121.1661605834961</v>
+        <v>65.74147033691406</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>308.41943359375</v>
+        <v>317.7162475585938</v>
       </c>
       <c r="H18" t="n">
-        <v>53.94431686401367</v>
+        <v>43.71772766113281</v>
       </c>
       <c r="I18" t="n">
-        <v>762.702880859375</v>
+        <v>705.2045288085938</v>
       </c>
       <c r="J18" t="n">
-        <v>124.792854309082</v>
+        <v>83.35717010498047</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>326.6443786621094</v>
+        <v>311.6835021972656</v>
       </c>
       <c r="H19" t="n">
-        <v>47.91666412353516</v>
+        <v>54.1516227722168</v>
       </c>
       <c r="I19" t="n">
-        <v>766.18994140625</v>
+        <v>698.9618530273438</v>
       </c>
       <c r="J19" t="n">
-        <v>131.6106872558594</v>
+        <v>81.65798950195312</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>359.5350341796875</v>
+        <v>327.3873291015625</v>
       </c>
       <c r="H20" t="n">
-        <v>58.03145217895508</v>
+        <v>82.74090576171875</v>
       </c>
       <c r="I20" t="n">
-        <v>764.561279296875</v>
+        <v>693.757568359375</v>
       </c>
       <c r="J20" t="n">
-        <v>128.0001525878906</v>
+        <v>74.52878570556641</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>493.0208435058594</v>
+        <v>454.0450134277344</v>
       </c>
       <c r="H21" t="n">
-        <v>141.0513763427734</v>
+        <v>142.8649444580078</v>
       </c>
       <c r="I21" t="n">
-        <v>756.956298828125</v>
+        <v>697.0435180664062</v>
       </c>
       <c r="J21" t="n">
-        <v>114.1856155395508</v>
+        <v>70.99124908447266</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>746.6560668945312</v>
+        <v>757.7782592773438</v>
       </c>
       <c r="H22" t="n">
-        <v>71.42626190185547</v>
+        <v>94.45265197753906</v>
       </c>
       <c r="I22" t="n">
-        <v>743.736083984375</v>
+        <v>703.2176513671875</v>
       </c>
       <c r="J22" t="n">
-        <v>112.6593627929688</v>
+        <v>76.09590148925781</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>315.5187072753906</v>
+        <v>285.4765625</v>
       </c>
       <c r="H23" t="n">
-        <v>78.86264038085938</v>
+        <v>49.51219177246094</v>
       </c>
       <c r="I23" t="n">
-        <v>280.0437927246094</v>
+        <v>272.2814331054688</v>
       </c>
       <c r="J23" t="n">
-        <v>42.74599075317383</v>
+        <v>65.87026977539062</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>316.1588439941406</v>
+        <v>287.9124755859375</v>
       </c>
       <c r="H24" t="n">
-        <v>75.84904479980469</v>
+        <v>44.93717193603516</v>
       </c>
       <c r="I24" t="n">
-        <v>400.5565185546875</v>
+        <v>375.1029052734375</v>
       </c>
       <c r="J24" t="n">
-        <v>50.37273788452148</v>
+        <v>67.39165496826172</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>311.5255432128906</v>
+        <v>284.0720825195312</v>
       </c>
       <c r="H25" t="n">
-        <v>61.81237411499023</v>
+        <v>36.712646484375</v>
       </c>
       <c r="I25" t="n">
-        <v>578.8787841796875</v>
+        <v>530.8394775390625</v>
       </c>
       <c r="J25" t="n">
-        <v>66.38204193115234</v>
+        <v>74.56764221191406</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>300.4822387695312</v>
+        <v>275.1071472167969</v>
       </c>
       <c r="H26" t="n">
-        <v>34.30408096313477</v>
+        <v>34.02635192871094</v>
       </c>
       <c r="I26" t="n">
-        <v>709.7138671875</v>
+        <v>651.6903076171875</v>
       </c>
       <c r="J26" t="n">
-        <v>91.49980926513672</v>
+        <v>82.54715728759766</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>294.7665405273438</v>
+        <v>273.0453186035156</v>
       </c>
       <c r="H27" t="n">
-        <v>24.2795238494873</v>
+        <v>43.8575439453125</v>
       </c>
       <c r="I27" t="n">
-        <v>797.512451171875</v>
+        <v>723.8350219726562</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9653244018555</v>
+        <v>88.71559906005859</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>315.8819274902344</v>
+        <v>320.5706787109375</v>
       </c>
       <c r="H28" t="n">
-        <v>48.03888702392578</v>
+        <v>50.86259460449219</v>
       </c>
       <c r="I28" t="n">
-        <v>814.5571899414062</v>
+        <v>749.6907958984375</v>
       </c>
       <c r="J28" t="n">
-        <v>120.3842163085938</v>
+        <v>71.22332000732422</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>345.3672790527344</v>
+        <v>316.8599853515625</v>
       </c>
       <c r="H29" t="n">
-        <v>83.16368865966797</v>
+        <v>43.2183837890625</v>
       </c>
       <c r="I29" t="n">
-        <v>802.97509765625</v>
+        <v>741.7490234375</v>
       </c>
       <c r="J29" t="n">
-        <v>125.4973220825195</v>
+        <v>66.73448944091797</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>426.7758483886719</v>
+        <v>401.326171875</v>
       </c>
       <c r="H30" t="n">
-        <v>117.7998962402344</v>
+        <v>115.4801559448242</v>
       </c>
       <c r="I30" t="n">
-        <v>784.2722778320312</v>
+        <v>727.4894409179688</v>
       </c>
       <c r="J30" t="n">
-        <v>113.0624313354492</v>
+        <v>59.80581665039062</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>697.7666015625</v>
+        <v>754.3302612304688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.2350082397461</v>
+        <v>104.7837066650391</v>
       </c>
       <c r="I31" t="n">
-        <v>762.021484375</v>
+        <v>730.7736206054688</v>
       </c>
       <c r="J31" t="n">
-        <v>115.9872512817383</v>
+        <v>60.53838729858398</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7119140625</v>
+        <v>289.9853820800781</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6010208129883</v>
+        <v>60.83093643188477</v>
       </c>
       <c r="I32" t="n">
-        <v>125.7333068847656</v>
+        <v>139.0518035888672</v>
       </c>
       <c r="J32" t="n">
-        <v>47.04484176635742</v>
+        <v>85.09498596191406</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>343.669921875</v>
+        <v>295.2522583007812</v>
       </c>
       <c r="H33" t="n">
-        <v>96.47445678710938</v>
+        <v>54.47593688964844</v>
       </c>
       <c r="I33" t="n">
-        <v>246.1924438476562</v>
+        <v>244.6357269287109</v>
       </c>
       <c r="J33" t="n">
-        <v>50.98471832275391</v>
+        <v>89.33805084228516</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>336.4677734375</v>
+        <v>295.4128112792969</v>
       </c>
       <c r="H34" t="n">
-        <v>84.59102630615234</v>
+        <v>47.98870086669922</v>
       </c>
       <c r="I34" t="n">
-        <v>402.9670715332031</v>
+        <v>370.7681274414062</v>
       </c>
       <c r="J34" t="n">
-        <v>62.80889892578125</v>
+        <v>94.10038757324219</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>330.2555236816406</v>
+        <v>296.3144226074219</v>
       </c>
       <c r="H35" t="n">
-        <v>77.96340179443359</v>
+        <v>45.58684539794922</v>
       </c>
       <c r="I35" t="n">
-        <v>542.8981323242188</v>
+        <v>481.3186950683594</v>
       </c>
       <c r="J35" t="n">
-        <v>77.11012268066406</v>
+        <v>105.4463653564453</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>316.2787170410156</v>
+        <v>287.983642578125</v>
       </c>
       <c r="H36" t="n">
-        <v>72.20364379882812</v>
+        <v>45.02412796020508</v>
       </c>
       <c r="I36" t="n">
-        <v>735.9580688476562</v>
+        <v>640.5289306640625</v>
       </c>
       <c r="J36" t="n">
-        <v>99.79165649414062</v>
+        <v>116.2159423828125</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>318.8566589355469</v>
+        <v>289.4808349609375</v>
       </c>
       <c r="H37" t="n">
-        <v>74.53727722167969</v>
+        <v>59.44274520874023</v>
       </c>
       <c r="I37" t="n">
-        <v>819.7770385742188</v>
+        <v>720.3827514648438</v>
       </c>
       <c r="J37" t="n">
-        <v>109.2671508789062</v>
+        <v>115.4663238525391</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>354.9938049316406</v>
+        <v>330.4042053222656</v>
       </c>
       <c r="H38" t="n">
-        <v>88.9276123046875</v>
+        <v>58.07376480102539</v>
       </c>
       <c r="I38" t="n">
-        <v>841.5890502929688</v>
+        <v>773.21875</v>
       </c>
       <c r="J38" t="n">
-        <v>102.1744003295898</v>
+        <v>79.62602996826172</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>416.5336608886719</v>
+        <v>396.3092651367188</v>
       </c>
       <c r="H39" t="n">
-        <v>92.65077972412109</v>
+        <v>65.54299163818359</v>
       </c>
       <c r="I39" t="n">
-        <v>833.8939819335938</v>
+        <v>776.326171875</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0904235839844</v>
+        <v>55.01476287841797</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>650.4808959960938</v>
+        <v>682.4877319335938</v>
       </c>
       <c r="H40" t="n">
-        <v>97.72212982177734</v>
+        <v>93.08358001708984</v>
       </c>
       <c r="I40" t="n">
-        <v>799.540283203125</v>
+        <v>769.2463989257812</v>
       </c>
       <c r="J40" t="n">
-        <v>112.5569381713867</v>
+        <v>47.85540771484375</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>364.9439392089844</v>
+        <v>307.6845397949219</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3212203979492</v>
+        <v>76.3218994140625</v>
       </c>
       <c r="I41" t="n">
-        <v>48.15374374389648</v>
+        <v>81.60448455810547</v>
       </c>
       <c r="J41" t="n">
-        <v>59.23542022705078</v>
+        <v>86.77536773681641</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>377.5528564453125</v>
+        <v>325.1250915527344</v>
       </c>
       <c r="H42" t="n">
-        <v>102.8054885864258</v>
+        <v>87.29658508300781</v>
       </c>
       <c r="I42" t="n">
-        <v>116.9279098510742</v>
+        <v>144.8087310791016</v>
       </c>
       <c r="J42" t="n">
-        <v>57.45729064941406</v>
+        <v>92.71926116943359</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>387.1342468261719</v>
+        <v>336.7687377929688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.33939361572266</v>
+        <v>94.54425048828125</v>
       </c>
       <c r="I43" t="n">
-        <v>190.994384765625</v>
+        <v>205.9545593261719</v>
       </c>
       <c r="J43" t="n">
-        <v>60.18266677856445</v>
+        <v>96.16472625732422</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>373.0472717285156</v>
+        <v>330.3327331542969</v>
       </c>
       <c r="H44" t="n">
-        <v>95.02418518066406</v>
+        <v>84.74564361572266</v>
       </c>
       <c r="I44" t="n">
-        <v>393.101806640625</v>
+        <v>368.6576843261719</v>
       </c>
       <c r="J44" t="n">
-        <v>86.01322937011719</v>
+        <v>111.7621688842773</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>373.6575927734375</v>
+        <v>335.0843811035156</v>
       </c>
       <c r="H45" t="n">
-        <v>90.85923767089844</v>
+        <v>81.63725280761719</v>
       </c>
       <c r="I45" t="n">
-        <v>512.67529296875</v>
+        <v>462.9862976074219</v>
       </c>
       <c r="J45" t="n">
-        <v>101.8191146850586</v>
+        <v>126.398567199707</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>361.5185546875</v>
+        <v>334.3362426757812</v>
       </c>
       <c r="H46" t="n">
-        <v>83.12541198730469</v>
+        <v>69.91442108154297</v>
       </c>
       <c r="I46" t="n">
-        <v>687.7767944335938</v>
+        <v>601.787109375</v>
       </c>
       <c r="J46" t="n">
-        <v>117.1075744628906</v>
+        <v>142.9086608886719</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>385.1601257324219</v>
+        <v>367.796142578125</v>
       </c>
       <c r="H47" t="n">
-        <v>83.6422119140625</v>
+        <v>78.98361206054688</v>
       </c>
       <c r="I47" t="n">
-        <v>813.0276489257812</v>
+        <v>723.8981323242188</v>
       </c>
       <c r="J47" t="n">
-        <v>124.5978012084961</v>
+        <v>152.1671447753906</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>454.5936584472656</v>
+        <v>441.6240234375</v>
       </c>
       <c r="H48" t="n">
-        <v>84.60124206542969</v>
+        <v>64.013671875</v>
       </c>
       <c r="I48" t="n">
-        <v>852.5517578125</v>
+        <v>788.9962768554688</v>
       </c>
       <c r="J48" t="n">
-        <v>112.2017593383789</v>
+        <v>109.2790679931641</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>606.3692626953125</v>
+        <v>611.416015625</v>
       </c>
       <c r="H49" t="n">
-        <v>72.65565490722656</v>
+        <v>58.08800506591797</v>
       </c>
       <c r="I49" t="n">
-        <v>843.3941040039062</v>
+        <v>794.0765380859375</v>
       </c>
       <c r="J49" t="n">
-        <v>117.5883407592773</v>
+        <v>76.40389251708984</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>394.7501220703125</v>
+        <v>343.2822570800781</v>
       </c>
       <c r="H50" t="n">
-        <v>113.1598510742188</v>
+        <v>106.1396179199219</v>
       </c>
       <c r="I50" t="n">
-        <v>-31.75890350341797</v>
+        <v>18.77735900878906</v>
       </c>
       <c r="J50" t="n">
-        <v>79.91798400878906</v>
+        <v>81.90018463134766</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>416.6336364746094</v>
+        <v>362.9052734375</v>
       </c>
       <c r="H51" t="n">
-        <v>107.1323852539062</v>
+        <v>119.3725814819336</v>
       </c>
       <c r="I51" t="n">
-        <v>13.45016956329346</v>
+        <v>65.06777191162109</v>
       </c>
       <c r="J51" t="n">
-        <v>80.50861358642578</v>
+        <v>92.14687347412109</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>432.8075866699219</v>
+        <v>374.7777709960938</v>
       </c>
       <c r="H52" t="n">
-        <v>99.45661163330078</v>
+        <v>122.6696548461914</v>
       </c>
       <c r="I52" t="n">
-        <v>49.61502075195312</v>
+        <v>97.18535614013672</v>
       </c>
       <c r="J52" t="n">
-        <v>81.41786193847656</v>
+        <v>97.14677429199219</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>430.0001525878906</v>
+        <v>373.7666015625</v>
       </c>
       <c r="H53" t="n">
-        <v>90.17230987548828</v>
+        <v>119.5066223144531</v>
       </c>
       <c r="I53" t="n">
-        <v>175.5991973876953</v>
+        <v>205.1372528076172</v>
       </c>
       <c r="J53" t="n">
-        <v>101.8669891357422</v>
+        <v>111.4652557373047</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>429.8143310546875</v>
+        <v>381.6825561523438</v>
       </c>
       <c r="H54" t="n">
-        <v>83.47820281982422</v>
+        <v>112.4089813232422</v>
       </c>
       <c r="I54" t="n">
-        <v>318.4641418457031</v>
+        <v>318.8775329589844</v>
       </c>
       <c r="J54" t="n">
-        <v>134.6266632080078</v>
+        <v>135.987548828125</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>418.4013366699219</v>
+        <v>389.3390502929688</v>
       </c>
       <c r="H55" t="n">
-        <v>85.74464416503906</v>
+        <v>100.3171234130859</v>
       </c>
       <c r="I55" t="n">
-        <v>499.2405090332031</v>
+        <v>462.4802551269531</v>
       </c>
       <c r="J55" t="n">
-        <v>158.850341796875</v>
+        <v>165.3589019775391</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>426.656494140625</v>
+        <v>412.7881469726562</v>
       </c>
       <c r="H56" t="n">
-        <v>90.47260284423828</v>
+        <v>85.32863616943359</v>
       </c>
       <c r="I56" t="n">
-        <v>641.4224243164062</v>
+        <v>575.3809204101562</v>
       </c>
       <c r="J56" t="n">
-        <v>175.2715148925781</v>
+        <v>196.8756103515625</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>468.0118408203125</v>
+        <v>458.5146789550781</v>
       </c>
       <c r="H57" t="n">
-        <v>92.51274871826172</v>
+        <v>83.97689056396484</v>
       </c>
       <c r="I57" t="n">
-        <v>789.7734985351562</v>
+        <v>717.0528564453125</v>
       </c>
       <c r="J57" t="n">
-        <v>160.7335205078125</v>
+        <v>195.9836120605469</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>598.7403564453125</v>
+        <v>592.6248168945312</v>
       </c>
       <c r="H58" t="n">
-        <v>58.15942001342773</v>
+        <v>38.99848556518555</v>
       </c>
       <c r="I58" t="n">
-        <v>836.5713500976562</v>
+        <v>767.3958129882812</v>
       </c>
       <c r="J58" t="n">
-        <v>157.5048065185547</v>
+        <v>182.8817749023438</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>449.0552062988281</v>
+        <v>388.0526733398438</v>
       </c>
       <c r="H59" t="n">
-        <v>94.66844177246094</v>
+        <v>129.6087646484375</v>
       </c>
       <c r="I59" t="n">
-        <v>-97.36014556884766</v>
+        <v>-34.94119644165039</v>
       </c>
       <c r="J59" t="n">
-        <v>88.82318115234375</v>
+        <v>84.62291717529297</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>454.5286560058594</v>
+        <v>389.7323303222656</v>
       </c>
       <c r="H60" t="n">
-        <v>90.29525756835938</v>
+        <v>128.6370391845703</v>
       </c>
       <c r="I60" t="n">
-        <v>-75.31278228759766</v>
+        <v>-12.93248748779297</v>
       </c>
       <c r="J60" t="n">
-        <v>91.69644927978516</v>
+        <v>91.09886169433594</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>467.3219909667969</v>
+        <v>399.2099609375</v>
       </c>
       <c r="H61" t="n">
-        <v>84.38462829589844</v>
+        <v>125.2280960083008</v>
       </c>
       <c r="I61" t="n">
-        <v>-15.67040920257568</v>
+        <v>38.91339111328125</v>
       </c>
       <c r="J61" t="n">
-        <v>96.85692596435547</v>
+        <v>102.1181106567383</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>468.4026794433594</v>
+        <v>402.8747253417969</v>
       </c>
       <c r="H62" t="n">
-        <v>82.51683044433594</v>
+        <v>117.0966873168945</v>
       </c>
       <c r="I62" t="n">
-        <v>88.757568359375</v>
+        <v>124.762092590332</v>
       </c>
       <c r="J62" t="n">
-        <v>123.3806228637695</v>
+        <v>122.6069259643555</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>461.1540222167969</v>
+        <v>406.9539184570312</v>
       </c>
       <c r="H63" t="n">
-        <v>80.40119171142578</v>
+        <v>106.6325378417969</v>
       </c>
       <c r="I63" t="n">
-        <v>256.1110534667969</v>
+        <v>261.777587890625</v>
       </c>
       <c r="J63" t="n">
-        <v>168.3080444335938</v>
+        <v>162.6443328857422</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>458.98486328125</v>
+        <v>429.9708557128906</v>
       </c>
       <c r="H64" t="n">
-        <v>88.98857116699219</v>
+        <v>80.97293090820312</v>
       </c>
       <c r="I64" t="n">
-        <v>442.3790588378906</v>
+        <v>405.7527465820312</v>
       </c>
       <c r="J64" t="n">
-        <v>215.0533447265625</v>
+        <v>229.6007537841797</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>481.9540100097656</v>
+        <v>476.3323059082031</v>
       </c>
       <c r="H65" t="n">
-        <v>103.3855438232422</v>
+        <v>79.39292144775391</v>
       </c>
       <c r="I65" t="n">
-        <v>669.1088256835938</v>
+        <v>594.3244018554688</v>
       </c>
       <c r="J65" t="n">
-        <v>214.2952880859375</v>
+        <v>271.25390625</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>477.2466735839844</v>
+        <v>417.3590698242188</v>
       </c>
       <c r="H66" t="n">
-        <v>84.31951904296875</v>
+        <v>118.2644729614258</v>
       </c>
       <c r="I66" t="n">
-        <v>-189.2852935791016</v>
+        <v>-134.0009460449219</v>
       </c>
       <c r="J66" t="n">
-        <v>76.75922393798828</v>
+        <v>81.61215209960938</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>481.2705383300781</v>
+        <v>422.87646484375</v>
       </c>
       <c r="H67" t="n">
-        <v>81.93093109130859</v>
+        <v>113.1731262207031</v>
       </c>
       <c r="I67" t="n">
-        <v>-176.6923370361328</v>
+        <v>-125.7539825439453</v>
       </c>
       <c r="J67" t="n">
-        <v>76.17436218261719</v>
+        <v>85.62789916992188</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>485.4921875</v>
+        <v>428.1319274902344</v>
       </c>
       <c r="H68" t="n">
-        <v>81.96683502197266</v>
+        <v>103.8191375732422</v>
       </c>
       <c r="I68" t="n">
-        <v>-87.18978881835938</v>
+        <v>-49.4164924621582</v>
       </c>
       <c r="J68" t="n">
-        <v>93.75200653076172</v>
+        <v>110.0454940795898</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>486.656494140625</v>
+        <v>433.2629699707031</v>
       </c>
       <c r="H69" t="n">
-        <v>83.76043701171875</v>
+        <v>94.49488830566406</v>
       </c>
       <c r="I69" t="n">
-        <v>2.013598680496216</v>
+        <v>23.62795829772949</v>
       </c>
       <c r="J69" t="n">
-        <v>122.4528427124023</v>
+        <v>135.6915740966797</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>482.3659362792969</v>
+        <v>442.0669250488281</v>
       </c>
       <c r="H70" t="n">
-        <v>89.08427429199219</v>
+        <v>78.76518249511719</v>
       </c>
       <c r="I70" t="n">
-        <v>241.2418823242188</v>
+        <v>216.9157867431641</v>
       </c>
       <c r="J70" t="n">
-        <v>195.4213256835938</v>
+        <v>218.0782470703125</v>
       </c>
     </row>
   </sheetData>
